--- a/document/药品基本信息.xlsx
+++ b/document/药品基本信息.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="388">
   <si>
     <t>CAS</t>
   </si>
@@ -769,6 +769,33 @@
   </si>
   <si>
     <t>齐鲁制药（海南）有限公司</t>
+  </si>
+  <si>
+    <t>53179-11-6</t>
+  </si>
+  <si>
+    <t>N,N-二甲基-α,α-二苯基-4-(对氯苯基)-4-羟基-1-哌啶丁酰胺盐酸盐</t>
+  </si>
+  <si>
+    <t>C29H33ClN2O2·HCl</t>
+  </si>
+  <si>
+    <t>Loperamide Hydrochloride Capsules</t>
+  </si>
+  <si>
+    <t>盐酸洛哌丁胺胶囊</t>
+  </si>
+  <si>
+    <t>止泻药，用于控制急、慢性腹泻</t>
+  </si>
+  <si>
+    <t>P450 CYP2D8 CYP3A4</t>
+  </si>
+  <si>
+    <t>易蒙停</t>
+  </si>
+  <si>
+    <t>西安杨森制药有限公司</t>
   </si>
   <si>
     <t>979-32-8</t>
@@ -1533,18 +1560,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1929,7 +1950,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1953,16 +1974,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1971,89 +1992,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2072,7 +2093,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2084,20 +2105,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2111,14 +2153,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,28 +2162,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2159,13 +2183,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2192,28 +2216,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2538,12 +2568,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -2640,7 +2670,7 @@
         <v>30</v>
       </c>
       <c r="L2" s="12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M2" s="11"/>
     </row>
@@ -2706,7 +2736,7 @@
       <c r="H4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="47" t="s">
         <v>36</v>
       </c>
       <c r="J4" s="11" t="s">
@@ -2950,7 +2980,7 @@
       <c r="H10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="47" t="s">
         <v>72</v>
       </c>
       <c r="J10" s="11" t="s">
@@ -3110,10 +3140,10 @@
       <c r="H14" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="I14" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="49" t="s">
         <v>100</v>
       </c>
       <c r="K14" s="15">
@@ -3409,7 +3439,7 @@
       <c r="L21" s="15">
         <v>10</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="50">
         <v>202411</v>
       </c>
     </row>
@@ -3489,7 +3519,7 @@
       <c r="L23" s="15">
         <v>32</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="50">
         <v>20241207</v>
       </c>
     </row>
@@ -3571,7 +3601,7 @@
       <c r="L25" s="22">
         <v>24</v>
       </c>
-      <c r="M25" s="50">
+      <c r="M25" s="51">
         <v>202501</v>
       </c>
     </row>
@@ -3612,7 +3642,7 @@
       <c r="L26" s="15">
         <v>76</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="50">
         <v>202404</v>
       </c>
     </row>
@@ -3700,1030 +3730,1071 @@
       <c r="A29" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="15">
+        <v>513.51</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="15">
+        <v>2</v>
+      </c>
+      <c r="L29" s="15">
+        <v>6</v>
+      </c>
+      <c r="M29" s="15">
+        <v>202612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="29">
         <v>356.5</v>
       </c>
-      <c r="E29" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="I29" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="K29" s="26">
+      <c r="E30" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="27">
         <v>1</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L30" s="27">
+        <v>42</v>
+      </c>
+      <c r="M30" s="27">
+        <v>20280109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27">
         <v>0</v>
       </c>
-      <c r="M29" s="26">
-        <v>20270720</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26">
+      <c r="M31" s="27">
+        <v>20261002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="27">
+        <v>372.55</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I32" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="K32" s="27">
+        <v>5</v>
+      </c>
+      <c r="L32" s="27">
+        <v>0</v>
+      </c>
+      <c r="M32" s="53">
+        <v>202502</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="1:13">
+      <c r="A33" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="27">
+        <v>372.55</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K33" s="27">
+        <v>5</v>
+      </c>
+      <c r="L33" s="27">
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
+        <v>202607</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:13">
+      <c r="A34" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="27">
+        <v>528.53</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="27">
+        <v>0</v>
+      </c>
+      <c r="M34" s="27">
+        <v>20270314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="27">
+        <v>416.94</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="27">
+        <v>50</v>
+      </c>
+      <c r="L35" s="27">
+        <v>0</v>
+      </c>
+      <c r="M35" s="27">
+        <v>202504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="27">
+        <v>416.94</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="I36" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" s="27">
+        <v>50</v>
+      </c>
+      <c r="L36" s="27">
+        <v>46</v>
+      </c>
+      <c r="M36" s="27">
+        <v>202809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="27">
+        <v>416.57</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" s="27">
+        <v>20</v>
+      </c>
+      <c r="L37" s="27">
+        <v>0</v>
+      </c>
+      <c r="M37" s="27">
+        <v>20260307</v>
+      </c>
+    </row>
+    <row r="38" s="6" customFormat="1" spans="1:13">
+      <c r="A38" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="36">
+        <v>142.16</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" s="54">
+        <v>400</v>
+      </c>
+      <c r="L38" s="54">
+        <v>0</v>
+      </c>
+      <c r="M38" s="55">
+        <v>202501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="42">
+        <v>666.7</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="K39" s="40">
+        <v>50</v>
+      </c>
+      <c r="L39" s="40">
+        <v>0</v>
+      </c>
+      <c r="M39" s="40">
+        <v>202606</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="40">
+        <v>389.41</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="40">
+        <v>20</v>
+      </c>
+      <c r="L40" s="40">
         <v>7</v>
       </c>
-      <c r="M30" s="26">
-        <v>20261002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="26">
-        <v>372.55</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="K31" s="26">
-        <v>5</v>
-      </c>
-      <c r="L31" s="26">
+      <c r="M40" s="40">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="40">
+        <v>341.88</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" s="40">
+        <v>30</v>
+      </c>
+      <c r="L41" s="40">
         <v>0</v>
       </c>
-      <c r="M31" s="26">
-        <v>202502</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:13">
-      <c r="A32" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="26">
-        <v>372.55</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="K32" s="26">
-        <v>5</v>
-      </c>
-      <c r="L32" s="26">
+      <c r="M41" s="56">
+        <v>20240306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="40">
+        <v>747.96</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="40">
+        <v>125</v>
+      </c>
+      <c r="L42" s="40">
+        <v>4</v>
+      </c>
+      <c r="M42" s="40">
+        <v>20250726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="40">
+        <v>419.46</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" s="40">
+        <v>250</v>
+      </c>
+      <c r="L43" s="40">
         <v>0</v>
       </c>
-      <c r="M32" s="26">
-        <v>202607</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:13">
-      <c r="A33" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="26">
-        <v>528.53</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="H33" s="29" t="s">
+      <c r="M43" s="57">
+        <v>20250205</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:13">
+      <c r="A44" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" s="40">
+        <v>319.24</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="K44" s="40">
+        <v>100</v>
+      </c>
+      <c r="L44" s="40">
+        <v>39</v>
+      </c>
+      <c r="M44" s="40">
+        <v>202605</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:13">
+      <c r="A45" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="40">
+        <v>337.93</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" s="40">
+        <v>2</v>
+      </c>
+      <c r="L45" s="40">
+        <v>75</v>
+      </c>
+      <c r="M45" s="40">
+        <v>202506</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:13">
+      <c r="A46" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="40">
+        <v>255.355</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="K46" s="40">
+        <v>25</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0</v>
+      </c>
+      <c r="M46" s="57">
+        <v>20250205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D47" s="40">
+        <v>310.82</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="H47" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="26">
+      <c r="I47" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="40">
+        <v>10</v>
+      </c>
+      <c r="L47" s="40">
+        <v>4</v>
+      </c>
+      <c r="M47" s="40">
+        <v>202510</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:13">
+      <c r="A48" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D48" s="40">
+        <v>310.82</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" s="40">
+        <v>10</v>
+      </c>
+      <c r="L48" s="40">
+        <v>50</v>
+      </c>
+      <c r="M48" s="40">
+        <v>202506</v>
+      </c>
+    </row>
+    <row r="49" s="7" customFormat="1" spans="1:13">
+      <c r="A49" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="40">
+        <v>461.81</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K49" s="40">
+        <v>10</v>
+      </c>
+      <c r="L49" s="40">
         <v>0</v>
       </c>
-      <c r="M33" s="26">
-        <v>20270314</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D34" s="26">
-        <v>416.94</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="26">
-        <v>50</v>
-      </c>
-      <c r="L34" s="26">
+      <c r="M49" s="40"/>
+    </row>
+    <row r="50" s="7" customFormat="1" spans="1:13">
+      <c r="A50" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D50" s="40">
+        <v>390.86</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="H50" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" s="40">
+        <v>4</v>
+      </c>
+      <c r="L50" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="M50" s="40">
+        <v>20260710</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="D51" s="40">
+        <v>176.13</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="K51" s="40">
+        <v>100</v>
+      </c>
+      <c r="L51" s="40">
         <v>0</v>
       </c>
-      <c r="M34" s="26">
+      <c r="M51" s="40">
+        <v>202505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40">
+        <v>29</v>
+      </c>
+      <c r="M52" s="40"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40">
+        <v>11</v>
+      </c>
+      <c r="M53" s="40">
+        <v>202602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40">
+        <v>24</v>
+      </c>
+      <c r="M54" s="40">
+        <v>202509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40">
+        <v>3</v>
+      </c>
+      <c r="M55" s="40">
+        <v>202512</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="M56" s="40">
         <v>202504</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="D35" s="26">
-        <v>416.94</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="H35" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="K35" s="26">
-        <v>50</v>
-      </c>
-      <c r="L35" s="26">
-        <v>46</v>
-      </c>
-      <c r="M35" s="26">
-        <v>202809</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" s="26">
-        <v>416.57</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="G36" s="29" t="s">
-        <v>248</v>
-      </c>
-      <c r="H36" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="K36" s="26">
-        <v>20</v>
-      </c>
-      <c r="L36" s="26">
-        <v>0</v>
-      </c>
-      <c r="M36" s="26">
-        <v>20260307</v>
-      </c>
-    </row>
-    <row r="37" s="6" customFormat="1" spans="1:13">
-      <c r="A37" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="D37" s="35">
-        <v>142.16</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="K37" s="52">
-        <v>400</v>
-      </c>
-      <c r="L37" s="52">
-        <v>0</v>
-      </c>
-      <c r="M37" s="53">
-        <v>202501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="D38" s="41">
-        <v>666.7</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="J38" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="K38" s="39">
-        <v>50</v>
-      </c>
-      <c r="L38" s="39">
-        <v>0</v>
-      </c>
-      <c r="M38" s="39">
-        <v>202606</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="39">
-        <v>389.41</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="K39" s="39">
-        <v>20</v>
-      </c>
-      <c r="L39" s="39">
-        <v>7</v>
-      </c>
-      <c r="M39" s="39">
-        <v>202509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="39">
-        <v>341.88</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>278</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="K40" s="39">
-        <v>30</v>
-      </c>
-      <c r="L40" s="39">
-        <v>0</v>
-      </c>
-      <c r="M40" s="54">
-        <v>20240306</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="39" t="s">
-        <v>281</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="D41" s="39">
-        <v>747.96</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="G41" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="K41" s="39">
+    <row r="57" spans="1:13">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" s="40">
         <v>125</v>
       </c>
-      <c r="L41" s="39">
-        <v>4</v>
-      </c>
-      <c r="M41" s="39">
-        <v>20250726</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>290</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D42" s="39">
-        <v>419.46</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="K42" s="39">
-        <v>250</v>
-      </c>
-      <c r="L42" s="39">
-        <v>0</v>
-      </c>
-      <c r="M42" s="39">
-        <v>20250205</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:13">
-      <c r="A43" s="39" t="s">
-        <v>297</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D43" s="39">
-        <v>319.24</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="G43" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="K43" s="39">
-        <v>100</v>
-      </c>
-      <c r="L43" s="39">
-        <v>39</v>
-      </c>
-      <c r="M43" s="39">
-        <v>202605</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:13">
-      <c r="A44" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="D44" s="39">
-        <v>337.93</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="G44" s="42" t="s">
-        <v>308</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42" t="s">
-        <v>309</v>
-      </c>
-      <c r="K44" s="39">
-        <v>2</v>
-      </c>
-      <c r="L44" s="39">
-        <v>75</v>
-      </c>
-      <c r="M44" s="39">
-        <v>202506</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:13">
-      <c r="A45" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="D45" s="39">
-        <v>255.355</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="G45" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="J45" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="K45" s="39">
-        <v>25</v>
-      </c>
-      <c r="L45" s="39">
-        <v>0</v>
-      </c>
-      <c r="M45" s="39">
-        <v>20250205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="39">
-        <v>310.82</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>324</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="K46" s="39">
-        <v>10</v>
-      </c>
-      <c r="L46" s="39">
-        <v>4</v>
-      </c>
-      <c r="M46" s="39">
-        <v>202510</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:13">
-      <c r="A47" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="39">
-        <v>310.82</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>326</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="J47" s="42" t="s">
-        <v>329</v>
-      </c>
-      <c r="K47" s="39">
-        <v>10</v>
-      </c>
-      <c r="L47" s="39">
-        <v>50</v>
-      </c>
-      <c r="M47" s="39">
-        <v>202506</v>
-      </c>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="1:13">
-      <c r="A48" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="D48" s="39">
-        <v>461.81</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>338</v>
-      </c>
-      <c r="K48" s="39">
-        <v>10</v>
-      </c>
-      <c r="L48" s="39">
-        <v>0</v>
-      </c>
-      <c r="M48" s="39"/>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="1:13">
-      <c r="A49" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="39">
-        <v>390.86</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>344</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>336</v>
-      </c>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40" t="s">
-        <v>345</v>
-      </c>
-      <c r="K49" s="39">
-        <v>4</v>
-      </c>
-      <c r="L49" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="M49" s="39">
-        <v>20260710</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="B50" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>349</v>
-      </c>
-      <c r="D50" s="39">
-        <v>176.13</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="K50" s="39">
-        <v>100</v>
-      </c>
-      <c r="L50" s="39">
-        <v>0</v>
-      </c>
-      <c r="M50" s="39">
-        <v>202505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="39"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>356</v>
-      </c>
-      <c r="G51" s="42" t="s">
-        <v>357</v>
-      </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39">
-        <v>29</v>
-      </c>
-      <c r="M51" s="39"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="39"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39">
-        <v>11</v>
-      </c>
-      <c r="M52" s="39">
-        <v>202602</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="39"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="G53" s="42" t="s">
-        <v>363</v>
-      </c>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42" t="s">
-        <v>364</v>
-      </c>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39">
-        <v>24</v>
-      </c>
-      <c r="M53" s="39">
-        <v>202509</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="39"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="G54" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42" t="s">
-        <v>367</v>
-      </c>
-      <c r="J54" s="42" t="s">
-        <v>368</v>
-      </c>
-      <c r="K54" s="39"/>
-      <c r="L54" s="39">
-        <v>3</v>
-      </c>
-      <c r="M54" s="39">
-        <v>202512</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G55" s="42" t="s">
-        <v>371</v>
-      </c>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="M55" s="39">
-        <v>202504</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="39"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="42" t="s">
-        <v>374</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42" t="s">
-        <v>377</v>
-      </c>
-      <c r="J56" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="K56" s="39">
-        <v>125</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="M56" s="39"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="45"/>
+      <c r="L57" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="M57" s="40"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="46"/>
     </row>
   </sheetData>
   <hyperlinks>
